--- a/htdocs/FESS/px-files/sitemaps/sitemap.xlsx
+++ b/htdocs/FESS/px-files/sitemaps/sitemap.xlsx
@@ -23,7 +23,7 @@
     <t>「FESS」 サイトマップ</t>
   </si>
   <si>
-    <t>Exported: 2015-02-22 13:35:03</t>
+    <t>Exported: 2015-10-25 08:23:10</t>
   </si>
   <si>
     <t>ページID</t>
